--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H2">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I2">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J2">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.164182666666667</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N2">
-        <v>27.492548</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O2">
-        <v>0.03970753467660135</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P2">
-        <v>0.04986509649035763</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q2">
-        <v>1.058936580771111</v>
+        <v>0.379951148532889</v>
       </c>
       <c r="R2">
-        <v>9.530429226939999</v>
+        <v>3.419560336796001</v>
       </c>
       <c r="S2">
-        <v>0.0002791034018733947</v>
+        <v>0.0001970339340144387</v>
       </c>
       <c r="T2">
-        <v>0.0003616156594959258</v>
+        <v>0.0002272915182897525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H3">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I3">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J3">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>240.97284</v>
       </c>
       <c r="O3">
-        <v>0.3480374900289019</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P3">
-        <v>0.437068761984357</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q3">
-        <v>9.2816044278</v>
+        <v>10.88415413808</v>
       </c>
       <c r="R3">
-        <v>83.53443985019999</v>
+        <v>97.95738724271999</v>
       </c>
       <c r="S3">
-        <v>0.002446347985028279</v>
+        <v>0.005644272208483139</v>
       </c>
       <c r="T3">
-        <v>0.003169569894256662</v>
+        <v>0.006511036823803033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H4">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I4">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J4">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.118916</v>
+        <v>0.112158</v>
       </c>
       <c r="N4">
-        <v>0.356748</v>
+        <v>0.336474</v>
       </c>
       <c r="O4">
-        <v>0.0005152517540683453</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P4">
-        <v>0.0006470580116016203</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q4">
-        <v>0.01374094199333333</v>
+        <v>0.015197708088</v>
       </c>
       <c r="R4">
-        <v>0.12366847794</v>
+        <v>0.136779372792</v>
       </c>
       <c r="S4">
-        <v>3.621693428034746E-06</v>
+        <v>7.881182157612266E-06</v>
       </c>
       <c r="T4">
-        <v>4.692386580314511E-06</v>
+        <v>9.091458623520815E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H5">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I5">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J5">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,60 +744,60 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.03759</v>
+        <v>13.242315</v>
       </c>
       <c r="N5">
-        <v>282.07518</v>
+        <v>26.48463</v>
       </c>
       <c r="O5">
-        <v>0.6111025062823514</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P5">
-        <v>0.5116188600720092</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q5">
-        <v>16.29712858715</v>
+        <v>1.79436899534</v>
       </c>
       <c r="R5">
-        <v>97.78277152289999</v>
+        <v>10.76621397204</v>
       </c>
       <c r="S5">
-        <v>0.004295426290901636</v>
+        <v>0.0009305185247907532</v>
       </c>
       <c r="T5">
-        <v>0.003710198205096596</v>
+        <v>0.0007156092827506972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1155516666666667</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H6">
-        <v>0.346655</v>
+        <v>14.229332</v>
       </c>
       <c r="I6">
-        <v>0.007028978357547423</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J6">
-        <v>0.00725187926921692</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1470646666666666</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N6">
-        <v>0.441194</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O6">
-        <v>0.0006372172580769324</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P6">
-        <v>0.0008002234416746982</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q6">
-        <v>0.01699356734111111</v>
+        <v>13.29974080769822</v>
       </c>
       <c r="R6">
-        <v>0.15294210607</v>
+        <v>119.697667269284</v>
       </c>
       <c r="S6">
-        <v>4.478986316078469E-06</v>
+        <v>0.006896939943020901</v>
       </c>
       <c r="T6">
-        <v>5.803123787422159E-06</v>
+        <v>0.00795607091257481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>14.229332</v>
       </c>
       <c r="I7">
-        <v>0.2885222098927089</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J7">
-        <v>0.2976717420651799</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.164182666666667</v>
+        <v>80.32428</v>
       </c>
       <c r="N7">
-        <v>27.492548</v>
+        <v>240.97284</v>
       </c>
       <c r="O7">
-        <v>0.03970753467660135</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P7">
-        <v>0.04986509649035763</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q7">
-        <v>43.46673255754845</v>
+        <v>380.98694926032</v>
       </c>
       <c r="R7">
-        <v>391.200593017936</v>
+        <v>3428.88254334288</v>
       </c>
       <c r="S7">
-        <v>0.01145650565428439</v>
+        <v>0.1975710764680641</v>
       </c>
       <c r="T7">
-        <v>0.01484343014053304</v>
+        <v>0.2279111472101874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>14.229332</v>
       </c>
       <c r="I8">
-        <v>0.2885222098927089</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J8">
-        <v>0.2976717420651799</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.32428</v>
+        <v>0.112158</v>
       </c>
       <c r="N8">
-        <v>240.97284</v>
+        <v>0.336474</v>
       </c>
       <c r="O8">
-        <v>0.3480374900289019</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P8">
-        <v>0.437068761984357</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q8">
-        <v>380.98694926032</v>
+        <v>0.531977806152</v>
       </c>
       <c r="R8">
-        <v>3428.88254334288</v>
+        <v>4.787800255367999</v>
       </c>
       <c r="S8">
-        <v>0.1004165457486504</v>
+        <v>0.0002758714649481468</v>
       </c>
       <c r="T8">
-        <v>0.130103019782155</v>
+        <v>0.0003182357619489424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>14.229332</v>
       </c>
       <c r="I9">
-        <v>0.2885222098927089</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J9">
-        <v>0.2976717420651799</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.118916</v>
+        <v>13.242315</v>
       </c>
       <c r="N9">
-        <v>0.356748</v>
+        <v>26.48463</v>
       </c>
       <c r="O9">
-        <v>0.0005152517540683453</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P9">
-        <v>0.0006470580116016203</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q9">
-        <v>0.5640317480373334</v>
+        <v>62.80976552785999</v>
       </c>
       <c r="R9">
-        <v>5.076285732336</v>
+        <v>376.85859316716</v>
       </c>
       <c r="S9">
-        <v>0.0001486615747348935</v>
+        <v>0.03257170097857326</v>
       </c>
       <c r="T9">
-        <v>0.0001926108855306857</v>
+        <v>0.02504905700882035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.743110666666666</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H10">
-        <v>14.229332</v>
+        <v>6.030113</v>
       </c>
       <c r="I10">
-        <v>0.2885222098927089</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J10">
-        <v>0.2976717420651799</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.03759</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N10">
-        <v>282.07518</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O10">
-        <v>0.6111025062823514</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P10">
-        <v>0.5116188600720092</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q10">
-        <v>668.95689752996</v>
+        <v>5.63617040779789</v>
       </c>
       <c r="R10">
-        <v>4013.74138517976</v>
+        <v>50.72553367018101</v>
       </c>
       <c r="S10">
-        <v>0.176316645583557</v>
+        <v>0.002922788449284169</v>
       </c>
       <c r="T10">
-        <v>0.1522944773510365</v>
+        <v>0.003371627469148884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.743110666666666</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H11">
-        <v>14.229332</v>
+        <v>6.030113</v>
       </c>
       <c r="I11">
-        <v>0.2885222098927089</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J11">
-        <v>0.2976717420651799</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1470646666666666</v>
+        <v>80.32428</v>
       </c>
       <c r="N11">
-        <v>0.441194</v>
+        <v>240.97284</v>
       </c>
       <c r="O11">
-        <v>0.0006372172580769324</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P11">
-        <v>0.0008002234416746982</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q11">
-        <v>0.6975439891564443</v>
+        <v>161.45482834788</v>
       </c>
       <c r="R11">
-        <v>6.277895902407999</v>
+        <v>1453.09345513092</v>
       </c>
       <c r="S11">
-        <v>0.0001838513314821291</v>
+        <v>0.08372676360591401</v>
       </c>
       <c r="T11">
-        <v>0.0002382039059247013</v>
+        <v>0.09658429303898911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.572895666666668</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H12">
-        <v>16.718687</v>
+        <v>6.030113</v>
       </c>
       <c r="I12">
-        <v>0.3389978194158731</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J12">
-        <v>0.349748019396306</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.164182666666667</v>
+        <v>0.112158</v>
       </c>
       <c r="N12">
-        <v>27.492548</v>
+        <v>0.336474</v>
       </c>
       <c r="O12">
-        <v>0.03970753467660135</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P12">
-        <v>0.04986509649035763</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q12">
-        <v>51.07103387160846</v>
+        <v>0.225441804618</v>
       </c>
       <c r="R12">
-        <v>459.639304844476</v>
+        <v>2.028976241562</v>
       </c>
       <c r="S12">
-        <v>0.01346076766974802</v>
+        <v>0.0001169089390220753</v>
       </c>
       <c r="T12">
-        <v>0.01744021873450827</v>
+        <v>0.0001348621007081164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.572895666666668</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H13">
-        <v>16.718687</v>
+        <v>6.030113</v>
       </c>
       <c r="I13">
-        <v>0.3389978194158731</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J13">
-        <v>0.349748019396306</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.32428</v>
+        <v>13.242315</v>
       </c>
       <c r="N13">
-        <v>240.97284</v>
+        <v>26.48463</v>
       </c>
       <c r="O13">
-        <v>0.3480374900289019</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P13">
-        <v>0.437068761984357</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q13">
-        <v>447.6388319401201</v>
+        <v>26.617551943865</v>
       </c>
       <c r="R13">
-        <v>4028.749487461081</v>
+        <v>159.70531166319</v>
       </c>
       <c r="S13">
-        <v>0.1179839501947714</v>
+        <v>0.01380325074311341</v>
       </c>
       <c r="T13">
-        <v>0.1528639338440243</v>
+        <v>0.0106153011474206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.572895666666668</v>
+        <v>5.4899615</v>
       </c>
       <c r="H14">
-        <v>16.718687</v>
+        <v>10.979923</v>
       </c>
       <c r="I14">
-        <v>0.3389978194158731</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J14">
-        <v>0.349748019396306</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.118916</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N14">
-        <v>0.356748</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O14">
-        <v>0.0005152517540683453</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P14">
-        <v>0.0006470580116016203</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q14">
-        <v>0.6627064610973334</v>
+        <v>15.39391975552517</v>
       </c>
       <c r="R14">
-        <v>5.964358149876001</v>
+        <v>92.36351853315101</v>
       </c>
       <c r="S14">
-        <v>0.0001746692210793728</v>
+        <v>0.007982933019272501</v>
       </c>
       <c r="T14">
-        <v>0.0002263072579921787</v>
+        <v>0.006139223260980287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.572895666666668</v>
+        <v>5.4899615</v>
       </c>
       <c r="H15">
-        <v>16.718687</v>
+        <v>10.979923</v>
       </c>
       <c r="I15">
-        <v>0.3389978194158731</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J15">
-        <v>0.349748019396306</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>141.03759</v>
+        <v>80.32428</v>
       </c>
       <c r="N15">
-        <v>282.07518</v>
+        <v>240.97284</v>
       </c>
       <c r="O15">
-        <v>0.6111025062823514</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P15">
-        <v>0.5116188600720092</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q15">
-        <v>785.9877741481101</v>
+        <v>440.97720471522</v>
       </c>
       <c r="R15">
-        <v>4715.926644888661</v>
+        <v>2645.86322829132</v>
       </c>
       <c r="S15">
-        <v>0.207162417069292</v>
+        <v>0.228680644317645</v>
       </c>
       <c r="T15">
-        <v>0.178937682995981</v>
+        <v>0.1758653777429273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.572895666666668</v>
+        <v>5.4899615</v>
       </c>
       <c r="H16">
-        <v>16.718687</v>
+        <v>10.979923</v>
       </c>
       <c r="I16">
-        <v>0.3389978194158731</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J16">
-        <v>0.349748019396306</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1470646666666666</v>
+        <v>0.112158</v>
       </c>
       <c r="N16">
-        <v>0.441194</v>
+        <v>0.336474</v>
       </c>
       <c r="O16">
-        <v>0.0006372172580769324</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P16">
-        <v>0.0008002234416746982</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q16">
-        <v>0.8195760435864445</v>
+        <v>0.6157431019169999</v>
       </c>
       <c r="R16">
-        <v>7.376184392278001</v>
+        <v>3.694458611502</v>
       </c>
       <c r="S16">
-        <v>0.0002160152609822417</v>
+        <v>0.0003193102223310115</v>
       </c>
       <c r="T16">
-        <v>0.0002798765638002211</v>
+        <v>0.0002455634714297001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.515886</v>
+        <v>5.4899615</v>
       </c>
       <c r="H17">
-        <v>3.031772</v>
+        <v>10.979923</v>
       </c>
       <c r="I17">
-        <v>0.09221095804049387</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J17">
-        <v>0.06342341669900138</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.164182666666667</v>
+        <v>13.242315</v>
       </c>
       <c r="N17">
-        <v>27.492548</v>
+        <v>26.48463</v>
       </c>
       <c r="O17">
-        <v>0.03970753467660135</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P17">
-        <v>0.04986509649035763</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q17">
-        <v>13.89185620584267</v>
+        <v>72.69979952087249</v>
       </c>
       <c r="R17">
-        <v>83.351137235056</v>
+        <v>290.79919808349</v>
       </c>
       <c r="S17">
-        <v>0.003661469813955542</v>
+        <v>0.03770044532558791</v>
       </c>
       <c r="T17">
-        <v>0.003162614793443863</v>
+        <v>0.01932885656048069</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.515886</v>
+        <v>7.607898666666666</v>
       </c>
       <c r="H18">
-        <v>3.031772</v>
+        <v>22.823696</v>
       </c>
       <c r="I18">
-        <v>0.09221095804049387</v>
+        <v>0.3806516606737776</v>
       </c>
       <c r="J18">
-        <v>0.06342341669900138</v>
+        <v>0.4190173552309168</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>80.32428</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N18">
-        <v>240.97284</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O18">
-        <v>0.3480374900289019</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P18">
-        <v>0.437068761984357</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q18">
-        <v>121.76245151208</v>
+        <v>21.33264169208356</v>
       </c>
       <c r="R18">
-        <v>730.57470907248</v>
+        <v>191.993775228752</v>
       </c>
       <c r="S18">
-        <v>0.03209287038957388</v>
+        <v>0.01106261773846913</v>
       </c>
       <c r="T18">
-        <v>0.02772039421745053</v>
+        <v>0.01276145246052661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.515886</v>
+        <v>7.607898666666666</v>
       </c>
       <c r="H19">
-        <v>3.031772</v>
+        <v>22.823696</v>
       </c>
       <c r="I19">
-        <v>0.09221095804049387</v>
+        <v>0.3806516606737776</v>
       </c>
       <c r="J19">
-        <v>0.06342341669900138</v>
+        <v>0.4190173552309168</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.118916</v>
+        <v>80.32428</v>
       </c>
       <c r="N19">
-        <v>0.356748</v>
+        <v>240.97284</v>
       </c>
       <c r="O19">
-        <v>0.0005152517540683453</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P19">
-        <v>0.0006470580116016203</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q19">
-        <v>0.180263099576</v>
+        <v>611.09898271296</v>
       </c>
       <c r="R19">
-        <v>1.081578597456</v>
+        <v>5499.890844416639</v>
       </c>
       <c r="S19">
-        <v>4.751185787468705E-05</v>
+        <v>0.3169018888377788</v>
       </c>
       <c r="T19">
-        <v>4.103862989823684E-05</v>
+        <v>0.3655670370848446</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.515886</v>
+        <v>7.607898666666666</v>
       </c>
       <c r="H20">
-        <v>3.031772</v>
+        <v>22.823696</v>
       </c>
       <c r="I20">
-        <v>0.09221095804049387</v>
+        <v>0.3806516606737776</v>
       </c>
       <c r="J20">
-        <v>0.06342341669900138</v>
+        <v>0.4190173552309168</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>141.03759</v>
+        <v>0.112158</v>
       </c>
       <c r="N20">
-        <v>282.07518</v>
+        <v>0.336474</v>
       </c>
       <c r="O20">
-        <v>0.6111025062823514</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P20">
-        <v>0.5116188600720092</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q20">
-        <v>213.79690815474</v>
+        <v>0.8532866986559999</v>
       </c>
       <c r="R20">
-        <v>855.18763261896</v>
+        <v>7.679580287903999</v>
       </c>
       <c r="S20">
-        <v>0.05635034756524255</v>
+        <v>0.0004424948726371104</v>
       </c>
       <c r="T20">
-        <v>0.03244861615341512</v>
+        <v>0.0005104467509122023</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.515886</v>
+        <v>7.607898666666666</v>
       </c>
       <c r="H21">
-        <v>3.031772</v>
+        <v>22.823696</v>
       </c>
       <c r="I21">
-        <v>0.09221095804049387</v>
+        <v>0.3806516606737776</v>
       </c>
       <c r="J21">
-        <v>0.06342341669900138</v>
+        <v>0.4190173552309168</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1470646666666666</v>
+        <v>13.242315</v>
       </c>
       <c r="N21">
-        <v>0.441194</v>
+        <v>26.48463</v>
       </c>
       <c r="O21">
-        <v>0.0006372172580769324</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P21">
-        <v>0.0008002234416746982</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q21">
-        <v>0.2229332692946666</v>
+        <v>100.74619063208</v>
       </c>
       <c r="R21">
-        <v>1.337599615768</v>
+        <v>604.47714379248</v>
       </c>
       <c r="S21">
-        <v>5.875841384721057E-05</v>
+        <v>0.05224465922489254</v>
       </c>
       <c r="T21">
-        <v>5.075290479364341E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>4.491881999999999</v>
-      </c>
-      <c r="H22">
-        <v>13.475646</v>
-      </c>
-      <c r="I22">
-        <v>0.2732400342933767</v>
-      </c>
-      <c r="J22">
-        <v>0.2819049425702959</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>9.164182666666667</v>
-      </c>
-      <c r="N22">
-        <v>27.492548</v>
-      </c>
-      <c r="O22">
-        <v>0.03970753467660135</v>
-      </c>
-      <c r="P22">
-        <v>0.04986509649035763</v>
-      </c>
-      <c r="Q22">
-        <v>41.164427165112</v>
-      </c>
-      <c r="R22">
-        <v>370.4798444860079</v>
-      </c>
-      <c r="S22">
-        <v>0.01084968813674</v>
-      </c>
-      <c r="T22">
-        <v>0.01405721716237653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>4.491881999999999</v>
-      </c>
-      <c r="H23">
-        <v>13.475646</v>
-      </c>
-      <c r="I23">
-        <v>0.2732400342933767</v>
-      </c>
-      <c r="J23">
-        <v>0.2819049425702959</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>80.32428</v>
-      </c>
-      <c r="N23">
-        <v>240.97284</v>
-      </c>
-      <c r="O23">
-        <v>0.3480374900289019</v>
-      </c>
-      <c r="P23">
-        <v>0.437068761984357</v>
-      </c>
-      <c r="Q23">
-        <v>360.80718749496</v>
-      </c>
-      <c r="R23">
-        <v>3247.26468745464</v>
-      </c>
-      <c r="S23">
-        <v>0.09509777571087791</v>
-      </c>
-      <c r="T23">
-        <v>0.1232118442464705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>4.491881999999999</v>
-      </c>
-      <c r="H24">
-        <v>13.475646</v>
-      </c>
-      <c r="I24">
-        <v>0.2732400342933767</v>
-      </c>
-      <c r="J24">
-        <v>0.2819049425702959</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.118916</v>
-      </c>
-      <c r="N24">
-        <v>0.356748</v>
-      </c>
-      <c r="O24">
-        <v>0.0005152517540683453</v>
-      </c>
-      <c r="P24">
-        <v>0.0006470580116016203</v>
-      </c>
-      <c r="Q24">
-        <v>0.534156639912</v>
-      </c>
-      <c r="R24">
-        <v>4.807409759208</v>
-      </c>
-      <c r="S24">
-        <v>0.0001407874069513572</v>
-      </c>
-      <c r="T24">
-        <v>0.0001824088516002046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>4.491881999999999</v>
-      </c>
-      <c r="H25">
-        <v>13.475646</v>
-      </c>
-      <c r="I25">
-        <v>0.2732400342933767</v>
-      </c>
-      <c r="J25">
-        <v>0.2819049425702959</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>141.03759</v>
-      </c>
-      <c r="N25">
-        <v>282.07518</v>
-      </c>
-      <c r="O25">
-        <v>0.6111025062823514</v>
-      </c>
-      <c r="P25">
-        <v>0.5116188600720092</v>
-      </c>
-      <c r="Q25">
-        <v>633.5242118443799</v>
-      </c>
-      <c r="R25">
-        <v>3801.14527106628</v>
-      </c>
-      <c r="S25">
-        <v>0.1669776697733581</v>
-      </c>
-      <c r="T25">
-        <v>0.14422788536648</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>4.491881999999999</v>
-      </c>
-      <c r="H26">
-        <v>13.475646</v>
-      </c>
-      <c r="I26">
-        <v>0.2732400342933767</v>
-      </c>
-      <c r="J26">
-        <v>0.2819049425702959</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.1470646666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.441194</v>
-      </c>
-      <c r="O26">
-        <v>0.0006372172580769324</v>
-      </c>
-      <c r="P26">
-        <v>0.0008002234416746982</v>
-      </c>
-      <c r="Q26">
-        <v>0.6605971290359999</v>
-      </c>
-      <c r="R26">
-        <v>5.945374161324</v>
-      </c>
-      <c r="S26">
-        <v>0.0001741132654492724</v>
-      </c>
-      <c r="T26">
-        <v>0.0002255869433687103</v>
+        <v>0.0401784189346334</v>
       </c>
     </row>
   </sheetData>
